--- a/item.xlsx
+++ b/item.xlsx
@@ -1,68 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\GoldOrange-bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B870361-D6F3-4B73-9142-332C9420B2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3150" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="5880" yWindow="2715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Gcoin</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Sliver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Miracle Gem</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,24 +50,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,41 +392,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col customWidth="1" max="7" min="7" width="15.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Gcoin</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diamond</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Miracle Gem</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>robpoint</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pick time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>431016551261405195</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3393553993</v>
+      </c>
+      <c r="C2" t="n">
+        <v>666750</v>
+      </c>
+      <c r="D2" t="n">
+        <v>777042</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>568754491101544448</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-399</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>350</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50010</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>539455628159090688</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50010</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>677186452353974302</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1199</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>305</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50010</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>463860452884217856</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-199</v>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50010</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>415482984171307009</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>250</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>5</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>630250004505952256</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>599259408945643543</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>500</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>652752179920240640</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/item.xlsx
+++ b/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="5880" yWindow="2715"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="2880" yWindow="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,15 +397,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="7" min="7" width="15.5703125"/>
+    <col customWidth="1" max="13" min="13" width="13.140625"/>
+    <col customWidth="1" max="15" min="15" width="11.28515625"/>
+    <col customWidth="1" max="16" min="16" width="17.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,6 +455,41 @@
           <t>pick time</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>TNT</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Dynamite</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Knife</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Desert Eagle</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>MP5</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bullet(DE)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Magazine(MP5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,28 +498,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3393553993</v>
+        <v>3394326834</v>
       </c>
       <c r="C2" t="n">
-        <v>666750</v>
+        <v>668000</v>
       </c>
       <c r="D2" t="n">
-        <v>777042</v>
+        <v>777062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +559,7 @@
         <v>350</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -512,6 +571,27 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -522,7 +602,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1901</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -537,13 +617,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50010</v>
+        <v>50011</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -576,6 +677,27 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -607,6 +729,27 @@
       <c r="I6" t="n">
         <v>2</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,7 +764,7 @@
         <v>250</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -636,7 +779,28 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -669,6 +833,27 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -700,6 +885,27 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -730,6 +936,27 @@
       </c>
       <c r="I10" t="n">
         <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/item.xlsx
+++ b/item.xlsx
@@ -403,7 +403,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" max="7" min="7" width="15.5703125"/>
     <col customWidth="1" max="13" min="13" width="13.140625"/>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3394326834</v>
+        <v>3394548834</v>
       </c>
       <c r="C2" t="n">
         <v>668000</v>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>

--- a/item.xlsx
+++ b/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="2880" yWindow="4080"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,23 +397,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="7" min="7" width="15.5703125"/>
     <col customWidth="1" max="13" min="13" width="13.140625"/>
     <col customWidth="1" max="15" min="15" width="11.28515625"/>
     <col customWidth="1" max="16" min="16" width="17.140625"/>
+    <col customWidth="1" max="17" min="17" width="11.7109375"/>
+    <col customWidth="1" max="18" min="18" width="14.7109375"/>
+    <col customWidth="1" max="19" min="19" width="15.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -498,13 +501,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3394548834</v>
+        <v>3394549834</v>
       </c>
       <c r="C2" t="n">
-        <v>668000</v>
+        <v>668250</v>
       </c>
       <c r="D2" t="n">
-        <v>777062</v>
+        <v>777067</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -519,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -537,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -602,7 +605,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -956,6 +959,58 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>454990113190051841</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>250</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/item.xlsx
+++ b/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="1" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="2625" yWindow="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="C7" t="n">
         <v>250</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>

--- a/item.xlsx
+++ b/item.xlsx
@@ -403,7 +403,7 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" max="7" min="7" width="15.5703125"/>
     <col customWidth="1" max="13" min="13" width="13.140625"/>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>

--- a/item.xlsx
+++ b/item.xlsx
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>

--- a/item.xlsx
+++ b/item.xlsx
@@ -403,7 +403,7 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="7" min="7" width="15.5703125"/>
     <col customWidth="1" max="13" min="13" width="13.140625"/>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
